--- a/Documentation/Inform_reytung.xlsx
+++ b/Documentation/Inform_reytung.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvoln\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="11340" windowHeight="8520"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="646">
   <si>
     <t>Найменування</t>
   </si>
@@ -2755,11 +2750,14 @@
   <si>
     <t>предложение - заполняет отдел кадров</t>
   </si>
+  <si>
+    <t>В базі</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3887,6 +3885,18 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3923,21 +3933,9 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3955,7 +3953,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Стандартна">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3993,9 +3991,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Стандартна">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4030,7 +4028,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4065,7 +4063,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Стандартна">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4242,9 +4240,9 @@
   <dimension ref="A1:O980"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A931" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B897" sqref="B897"/>
+      <selection pane="bottomLeft" activeCell="B538" sqref="B538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4259,49 +4257,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="176"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="180"/>
     </row>
     <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="178"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="182"/>
     </row>
     <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="178"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="182"/>
     </row>
     <row r="4" spans="1:15" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="G4" s="179" t="s">
+      <c r="G4" s="183" t="s">
         <v>388</v>
       </c>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179"/>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="179"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="183"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="183"/>
     </row>
     <row r="5" spans="1:15" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
@@ -4314,7 +4312,9 @@
       <c r="D5" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>645</v>
+      </c>
       <c r="G5" s="16" t="s">
         <v>389</v>
       </c>
@@ -4369,6 +4369,9 @@
       <c r="D7" s="14" t="s">
         <v>402</v>
       </c>
+      <c r="E7" s="6" t="s">
+        <v>398</v>
+      </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
@@ -4387,6 +4390,9 @@
       <c r="C8" s="18"/>
       <c r="D8" s="14" t="s">
         <v>402</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>398</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -4492,6 +4498,9 @@
       <c r="D14" s="14" t="s">
         <v>402</v>
       </c>
+      <c r="E14" s="6" t="s">
+        <v>398</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -4510,6 +4519,9 @@
       <c r="C15" s="18"/>
       <c r="D15" s="14" t="s">
         <v>402</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>398</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -6216,13 +6228,13 @@
     </row>
     <row r="106" spans="1:15" s="27" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A106" s="18"/>
-      <c r="B106" s="186" t="s">
+      <c r="B106" s="174" t="s">
         <v>580</v>
       </c>
-      <c r="C106" s="184" t="s">
+      <c r="C106" s="188" t="s">
         <v>581</v>
       </c>
-      <c r="D106" s="185"/>
+      <c r="D106" s="189"/>
       <c r="G106" s="28"/>
       <c r="H106" s="28"/>
       <c r="I106" s="28"/>
@@ -18485,7 +18497,7 @@
       <c r="N776" s="17"/>
       <c r="O776" s="17"/>
     </row>
-    <row r="777" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A777" s="18"/>
       <c r="B777" s="106" t="s">
         <v>494</v>
@@ -20060,7 +20072,7 @@
       <c r="N861" s="17"/>
       <c r="O861" s="17"/>
     </row>
-    <row r="862" spans="1:15" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A862" s="18"/>
       <c r="B862" s="165" t="s">
         <v>358</v>
@@ -20098,7 +20110,7 @@
       <c r="N863" s="17"/>
       <c r="O863" s="17"/>
     </row>
-    <row r="864" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A864" s="18"/>
       <c r="B864" s="165" t="s">
         <v>360</v>
@@ -20624,7 +20636,7 @@
       <c r="N891" s="17"/>
       <c r="O891" s="17"/>
     </row>
-    <row r="892" spans="1:15" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:15" ht="114" x14ac:dyDescent="0.2">
       <c r="A892" s="18"/>
       <c r="B892" s="165" t="s">
         <v>590</v>
@@ -20709,7 +20721,7 @@
     </row>
     <row r="897" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A897" s="18"/>
-      <c r="B897" s="189" t="s">
+      <c r="B897" s="177" t="s">
         <v>10</v>
       </c>
       <c r="C897" s="71"/>
@@ -20726,7 +20738,7 @@
     </row>
     <row r="898" spans="1:15" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A898" s="18"/>
-      <c r="B898" s="187" t="s">
+      <c r="B898" s="175" t="s">
         <v>595</v>
       </c>
       <c r="C898" s="71"/>
@@ -20808,7 +20820,7 @@
     </row>
     <row r="902" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A902" s="18"/>
-      <c r="B902" s="188" t="s">
+      <c r="B902" s="176" t="s">
         <v>601</v>
       </c>
       <c r="C902" s="25"/>
@@ -20911,7 +20923,7 @@
         <v>221</v>
       </c>
       <c r="C907" s="25"/>
-      <c r="D907" s="181" t="s">
+      <c r="D907" s="185" t="s">
         <v>599</v>
       </c>
       <c r="G907" s="17"/>
@@ -20934,7 +20946,7 @@
         <v>222</v>
       </c>
       <c r="C908" s="25"/>
-      <c r="D908" s="182"/>
+      <c r="D908" s="186"/>
       <c r="G908" s="17"/>
       <c r="H908" s="17"/>
       <c r="I908" s="17" t="s">
@@ -20953,7 +20965,7 @@
         <v>245</v>
       </c>
       <c r="C909" s="25"/>
-      <c r="D909" s="182"/>
+      <c r="D909" s="186"/>
       <c r="G909" s="17"/>
       <c r="H909" s="17"/>
       <c r="I909" s="17" t="s">
@@ -20974,7 +20986,7 @@
         <v>594</v>
       </c>
       <c r="C910" s="25"/>
-      <c r="D910" s="182"/>
+      <c r="D910" s="186"/>
       <c r="G910" s="17"/>
       <c r="H910" s="17"/>
       <c r="I910" s="17"/>
@@ -20993,7 +21005,7 @@
         <v>596</v>
       </c>
       <c r="C911" s="25"/>
-      <c r="D911" s="182"/>
+      <c r="D911" s="186"/>
       <c r="G911" s="17"/>
       <c r="H911" s="17"/>
       <c r="I911" s="17"/>
@@ -21012,7 +21024,7 @@
         <v>597</v>
       </c>
       <c r="C912" s="25"/>
-      <c r="D912" s="182"/>
+      <c r="D912" s="186"/>
       <c r="G912" s="17"/>
       <c r="H912" s="17"/>
       <c r="I912" s="17"/>
@@ -21031,7 +21043,7 @@
         <v>598</v>
       </c>
       <c r="C913" s="25"/>
-      <c r="D913" s="182"/>
+      <c r="D913" s="186"/>
       <c r="G913" s="17"/>
       <c r="H913" s="17"/>
       <c r="I913" s="17"/>
@@ -21050,7 +21062,7 @@
         <v>223</v>
       </c>
       <c r="C914" s="25"/>
-      <c r="D914" s="183"/>
+      <c r="D914" s="187"/>
       <c r="G914" s="17" t="s">
         <v>398</v>
       </c>
@@ -21274,7 +21286,7 @@
       <c r="N925" s="17"/>
       <c r="O925" s="17"/>
     </row>
-    <row r="926" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A926" s="18"/>
       <c r="B926" s="141" t="s">
         <v>602</v>
@@ -21686,8 +21698,8 @@
       <c r="O946" s="17"/>
     </row>
     <row r="947" spans="1:15" s="87" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A947" s="180"/>
-      <c r="B947" s="180"/>
+      <c r="A947" s="184"/>
+      <c r="B947" s="184"/>
       <c r="C947" s="96"/>
       <c r="D947" s="97"/>
     </row>
